--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -469,10 +469,10 @@
         <v>107.3923</v>
       </c>
       <c r="C2" t="n">
-        <v>106.5867373364424</v>
+        <v>106.6818862235548</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9702911376953</v>
+        <v>106.5845108032227</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>107.3852</v>
       </c>
       <c r="C3" t="n">
-        <v>107.6432708568614</v>
+        <v>107.6705366336263</v>
       </c>
       <c r="D3" t="n">
-        <v>107.3899841308594</v>
+        <v>107.0449371337891</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>106.6038</v>
       </c>
       <c r="C4" t="n">
-        <v>107.2502463726212</v>
+        <v>107.2734466711334</v>
       </c>
       <c r="D4" t="n">
-        <v>107.3755569458008</v>
+        <v>106.9820327758789</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +511,10 @@
         <v>106.4836</v>
       </c>
       <c r="C5" t="n">
-        <v>106.3395714919591</v>
+        <v>106.3415299798048</v>
       </c>
       <c r="D5" t="n">
-        <v>106.7016830444336</v>
+        <v>106.2596817016602</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +525,10 @@
         <v>105.8691</v>
       </c>
       <c r="C6" t="n">
-        <v>106.6922096447232</v>
+        <v>106.5392423389706</v>
       </c>
       <c r="D6" t="n">
-        <v>106.5632858276367</v>
+        <v>106.2271194458008</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +539,10 @@
         <v>105.5307</v>
       </c>
       <c r="C7" t="n">
-        <v>105.6979204518509</v>
+        <v>105.6066358493487</v>
       </c>
       <c r="D7" t="n">
-        <v>105.9517364501953</v>
+        <v>105.6290588378906</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>106.0904</v>
       </c>
       <c r="C8" t="n">
-        <v>105.6115793993954</v>
+        <v>105.5009593955876</v>
       </c>
       <c r="D8" t="n">
-        <v>105.6156463623047</v>
+        <v>105.3685531616211</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +567,10 @@
         <v>106.1116</v>
       </c>
       <c r="C9" t="n">
-        <v>106.3893813414154</v>
+        <v>106.321256966647</v>
       </c>
       <c r="D9" t="n">
-        <v>106.0630874633789</v>
+        <v>105.9097290039062</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +581,10 @@
         <v>106.2045</v>
       </c>
       <c r="C10" t="n">
-        <v>105.9400443914998</v>
+        <v>106.0294869406108</v>
       </c>
       <c r="D10" t="n">
-        <v>106.0799255371094</v>
+        <v>105.8586654663086</v>
       </c>
     </row>
     <row r="11">
@@ -595,10 +595,10 @@
         <v>105.9955</v>
       </c>
       <c r="C11" t="n">
-        <v>106.229411595291</v>
+        <v>106.2730446230066</v>
       </c>
       <c r="D11" t="n">
-        <v>106.2032699584961</v>
+        <v>105.9654922485352</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>106.1879</v>
       </c>
       <c r="C12" t="n">
-        <v>105.8945453533713</v>
+        <v>105.8867984458538</v>
       </c>
       <c r="D12" t="n">
-        <v>106.020393371582</v>
+        <v>105.7590103149414</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +623,10 @@
         <v>105.7649</v>
       </c>
       <c r="C13" t="n">
-        <v>106.3202792257616</v>
+        <v>106.3058277282945</v>
       </c>
       <c r="D13" t="n">
-        <v>106.1918792724609</v>
+        <v>105.966194152832</v>
       </c>
     </row>
   </sheetData>
